--- a/Закупка 2022.xlsx
+++ b/Закупка 2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.0.200\обмен\Голубев Д. С\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA51628-61FB-4848-9687-730B1ABF143F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB2C31A-6D40-4DD5-94FB-AE823123E644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D233B8F-D76C-4612-B7DB-6DC21E89BD78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Закупка Осень 2022" sheetId="1" r:id="rId1"/>
@@ -21,20 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="62">
   <si>
     <t>Монитор 24"</t>
   </si>
@@ -102,15 +94,9 @@
     <t>Бычкова (15 каб)</t>
   </si>
   <si>
-    <t>Мясникова 12 каб</t>
-  </si>
-  <si>
     <t>Пискарёва (8 кабинет Администрация)</t>
   </si>
   <si>
-    <t>Талиппова ЕБ 19 каб</t>
-  </si>
-  <si>
     <t>USB Flash</t>
   </si>
   <si>
@@ -120,15 +106,6 @@
     <t>Батарея 12В</t>
   </si>
   <si>
-    <t>Администрация</t>
-  </si>
-  <si>
-    <t>Медниковых 9 Бурдова</t>
-  </si>
-  <si>
-    <t>Бесмперебойник на медниковых, вместо того что сгорел. Взяли в серверной в Администрации</t>
-  </si>
-  <si>
     <t>Бесмперебойник на медниковых</t>
   </si>
   <si>
@@ -151,13 +128,97 @@
   </si>
   <si>
     <t>Виноградов</t>
+  </si>
+  <si>
+    <t>Размер</t>
+  </si>
+  <si>
+    <t>№ П П</t>
+  </si>
+  <si>
+    <t>Талиппова ЕБ 19 каб (Администрация)</t>
+  </si>
+  <si>
+    <t>Взяли в серверной в Администрации</t>
+  </si>
+  <si>
+    <t>Сетевой фильтр</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Кому</t>
+  </si>
+  <si>
+    <t>Администрация (Талипова ЕБ)</t>
+  </si>
+  <si>
+    <t>Администрация (компьютер с СЭД 2 Этаж)</t>
+  </si>
+  <si>
+    <t>Медниковых 9 Бурдова (МКУ)</t>
+  </si>
+  <si>
+    <t>Кобякова (МКУ Медниковых 9)</t>
+  </si>
+  <si>
+    <t>Завершинская СВ</t>
+  </si>
+  <si>
+    <t>Мясникова 12 каб Бархатова ЮМ</t>
+  </si>
+  <si>
+    <t>Шубинок(МКУ)</t>
+  </si>
+  <si>
+    <t>Медниковых 9 Ира</t>
+  </si>
+  <si>
+    <t>Медниковых 9 Таня</t>
+  </si>
+  <si>
+    <t>Медниковых 9 Кобякова</t>
+  </si>
+  <si>
+    <t>Смирнова И.(бухгалтерия)</t>
+  </si>
+  <si>
+    <t>Чернышова (бухгалтерия)</t>
+  </si>
+  <si>
+    <t>Медниковых 9 Пухова</t>
+  </si>
+  <si>
+    <t>Медниковых 9 Мухина (СБИС 2)</t>
+  </si>
+  <si>
+    <t>Медниковых 9 Курдюкова</t>
+  </si>
+  <si>
+    <t>Бесперебойник серверная</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t>Кому установленно</t>
+  </si>
+  <si>
+    <t>Когда</t>
+  </si>
+  <si>
+    <t>Трухина Екатерина Александровна</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +226,61 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -175,7 +291,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -183,26 +299,639 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -518,11 +1247,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E2AD04-85A5-43AC-8E5E-4C3081E1A832}">
-  <dimension ref="C1:N16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,1004 +1269,1311 @@
     <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C1">
+    <row r="1" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C2" s="42">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F2" s="48">
         <v>44861</v>
       </c>
-      <c r="G1">
+      <c r="G2" s="42">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I2" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J2" s="44">
         <v>44858</v>
       </c>
-    </row>
-    <row r="2" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C2">
+      <c r="K2" s="42"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="19"/>
+    </row>
+    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C3" s="16">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="E3" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="49">
         <v>44889</v>
       </c>
-      <c r="G2">
+      <c r="G3" s="16">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I3" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J3" s="20">
         <v>44866</v>
       </c>
-    </row>
-    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C3">
+      <c r="K3" s="16"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C4" s="16">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="E4" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="49">
         <v>44895</v>
       </c>
-      <c r="G3">
+      <c r="G4" s="16">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I4" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J4" s="20">
         <v>44879</v>
       </c>
-    </row>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C4">
+      <c r="K4" s="16"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C5" s="16">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="E5" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="49">
+        <v>44911</v>
+      </c>
+      <c r="G5" s="16">
         <v>4</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J5" s="20">
         <v>44883</v>
       </c>
-    </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C5">
+      <c r="K5" s="16"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="21">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="G5">
+      <c r="E6" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="53">
+        <v>44911</v>
+      </c>
+      <c r="G6" s="21">
         <v>5</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I6" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J6" s="52">
         <v>44889</v>
       </c>
-    </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C7">
+      <c r="K6" s="16"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="59"/>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C8" s="42">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G7">
+      <c r="E8" s="18"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="42">
         <v>1</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H8" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I8" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J8" s="48">
         <v>44851</v>
       </c>
-      <c r="K7">
+      <c r="K8" s="42">
         <v>1</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M8" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N8" s="44">
         <v>44844</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C8">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C9" s="16">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G8">
+      <c r="E9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="49">
+        <v>44902</v>
+      </c>
+      <c r="G9" s="16">
         <v>2</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J9" s="49">
         <v>44866</v>
       </c>
-      <c r="K8">
+      <c r="K9" s="16">
         <v>2</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M9" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N9" s="20">
         <v>44851</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C9">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C10" s="16">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G9">
+      <c r="E10" s="3"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="16">
         <v>3</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9">
+      <c r="I10" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="49">
+        <v>44903</v>
+      </c>
+      <c r="K10" s="16">
         <v>3</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M10" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N10" s="20">
         <v>44851</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C10">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C11" s="16">
         <v>4</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G10">
+      <c r="E11" s="3"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="16">
         <v>4</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K10">
+      <c r="I11" s="3"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="16">
         <v>4</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M11" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N11" s="20">
         <v>44851</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C11">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C12" s="16">
         <v>5</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G11">
+      <c r="E12" s="3"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="16">
         <v>5</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K11">
+      <c r="I12" s="3"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="16">
         <v>5</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M12" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N12" s="20">
         <v>44851</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C12">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C13" s="16">
         <v>6</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G12">
+      <c r="E13" s="3"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="16">
         <v>6</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K12">
+      <c r="I13" s="3"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="16">
         <v>6</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M13" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N13" s="20">
         <v>44851</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C13">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="16">
         <v>7</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G13">
+      <c r="E14" s="3"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="16">
         <v>7</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K13">
+      <c r="I14" s="3"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="16">
         <v>7</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M14" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N14" s="20">
         <v>44851</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C14">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C15" s="16">
         <v>8</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G14">
+      <c r="E15" s="3"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="16">
         <v>8</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K14">
+      <c r="I15" s="3"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="16">
         <v>8</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M15" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N15" s="20">
         <v>44851</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C15">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C16" s="16">
         <v>9</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G15">
+      <c r="E16" s="3"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="16">
         <v>9</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K15">
+      <c r="I16" s="3"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="16">
         <v>9</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M16" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N16" s="20">
         <v>44851</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C16">
+    <row r="17" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="21">
         <v>10</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G16">
+      <c r="E17" s="22"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="21">
         <v>10</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H17" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="K16">
+      <c r="I17" s="22"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="21">
         <v>10</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L17" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="M16" t="s">
-        <v>13</v>
-      </c>
-      <c r="N16" s="1">
+      <c r="M17" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="N17" s="52">
         <v>44874</v>
       </c>
+    </row>
+    <row r="21" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F21" s="45"/>
+    </row>
+    <row r="22" spans="3:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F22" s="46"/>
+    </row>
+    <row r="26" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E26" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA469B3C-5DA4-445D-8B69-3760E3096CB1}">
-  <dimension ref="B2:L28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:O29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="90.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" customWidth="1"/>
+    <col min="14" max="14" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="72"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2">
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="62"/>
+      <c r="O5" s="63"/>
+    </row>
+    <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" s="38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="26">
         <v>1</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="27">
         <v>32</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="E7" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="29">
+        <v>44896</v>
+      </c>
+      <c r="G7" s="30">
         <v>1</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2">
+      <c r="H7" s="27"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="26">
         <v>1</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="3">
+      <c r="K7" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="32">
         <v>44895</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2">
+      <c r="M7" s="33">
+        <v>1</v>
+      </c>
+      <c r="N7" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="35">
+        <v>44901</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="5">
         <v>2</v>
-      </c>
-      <c r="D7" s="2">
-        <v>32</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>2</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2">
-        <v>2</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="5">
-        <v>44895</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2">
-        <v>3</v>
       </c>
       <c r="D8" s="2">
         <v>32</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="E8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7">
+        <v>44896</v>
+      </c>
+      <c r="G8" s="24">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="5">
+        <v>2</v>
+      </c>
+      <c r="K8" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="69">
+        <v>44895</v>
+      </c>
+      <c r="M8" s="16">
+        <v>2</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O8" s="20">
+        <v>44915</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="5">
         <v>3</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2">
-        <v>3</v>
-      </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2">
-        <v>4</v>
       </c>
       <c r="D9" s="2">
         <v>32</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="E9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="7">
+        <v>44896</v>
+      </c>
+      <c r="G9" s="24">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="5">
+        <v>3</v>
+      </c>
+      <c r="K9" s="68"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="16">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="5">
         <v>4</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2">
-        <v>4</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="5">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2">
-        <v>5</v>
       </c>
       <c r="D10" s="2">
         <v>32</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="E10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="7">
+        <v>44896</v>
+      </c>
+      <c r="G10" s="24">
+        <v>4</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="5">
+        <v>4</v>
+      </c>
+      <c r="K10" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="69">
+        <v>44896</v>
+      </c>
+      <c r="M10" s="16">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="5">
         <v>5</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2">
-        <v>5</v>
-      </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="6"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2">
-        <v>6</v>
       </c>
       <c r="D11" s="2">
         <v>32</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="E11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="7">
+        <v>44896</v>
+      </c>
+      <c r="G11" s="24">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="5">
+        <v>5</v>
+      </c>
+      <c r="K11" s="68"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="16">
+        <v>5</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="5">
         <v>6</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2">
-        <v>6</v>
-      </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2">
-        <v>7</v>
       </c>
       <c r="D12" s="2">
         <v>32</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="E12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="7">
+        <v>44896</v>
+      </c>
+      <c r="G12" s="24">
+        <v>6</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="5">
+        <v>6</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" s="12">
+        <v>44903</v>
+      </c>
+      <c r="M12" s="16">
+        <v>6</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="5">
         <v>7</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2">
-        <v>7</v>
-      </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2">
-        <v>8</v>
       </c>
       <c r="D13" s="2">
         <v>32</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="E13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="7">
+        <v>44896</v>
+      </c>
+      <c r="G13" s="24">
+        <v>7</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="5">
+        <v>7</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" s="12">
+        <v>44908</v>
+      </c>
+      <c r="M13" s="16">
+        <v>7</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="5">
         <v>8</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2">
-        <v>8</v>
-      </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2">
-        <v>9</v>
       </c>
       <c r="D14" s="2">
         <v>32</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="E14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="7">
+        <v>44896</v>
+      </c>
+      <c r="G14" s="24">
+        <v>8</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="5">
+        <v>8</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="12">
+        <v>44908</v>
+      </c>
+      <c r="M14" s="16">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3"/>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="5">
         <v>9</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2">
-        <v>9</v>
-      </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2">
-        <v>10</v>
       </c>
       <c r="D15" s="2">
         <v>32</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
+      <c r="E15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="7">
+        <v>44896</v>
+      </c>
+      <c r="G15" s="24">
+        <v>9</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="5">
+        <v>9</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L15" s="12">
+        <v>44908</v>
+      </c>
+      <c r="M15" s="16">
+        <v>9</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="5">
         <v>10</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2">
-        <v>10</v>
-      </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2">
-        <v>11</v>
       </c>
       <c r="D16" s="2">
         <v>32</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2">
+      <c r="E16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="7">
+        <v>44896</v>
+      </c>
+      <c r="G16" s="25">
+        <v>10</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="5">
+        <v>10</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="12">
+        <v>44910</v>
+      </c>
+      <c r="M16" s="16">
+        <v>10</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="5">
         <v>11</v>
-      </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2">
-        <v>12</v>
       </c>
       <c r="D17" s="2">
         <v>32</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2">
+      <c r="E17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="7">
+        <v>44896</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="5">
+        <v>11</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" s="12">
+        <v>44911</v>
+      </c>
+      <c r="M17" s="16"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="5">
         <v>12</v>
-      </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2">
-        <v>13</v>
       </c>
       <c r="D18" s="2">
         <v>32</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2">
+      <c r="E18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="7">
+        <v>44896</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="5">
+        <v>12</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" s="12">
+        <v>44911</v>
+      </c>
+      <c r="M18" s="16"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="5">
         <v>13</v>
-      </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2">
-        <v>14</v>
       </c>
       <c r="D19" s="2">
         <v>32</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2">
+        <v>29</v>
+      </c>
+      <c r="F19" s="7">
+        <v>44896</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="5">
+        <v>13</v>
+      </c>
+      <c r="K19" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="L19" s="66">
+        <v>44911</v>
+      </c>
+      <c r="M19" s="16"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="6"/>
+    </row>
+    <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+      <c r="C20" s="5">
         <v>14</v>
-      </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2">
-        <v>15</v>
       </c>
       <c r="D20" s="2">
         <v>32</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2">
+        <v>29</v>
+      </c>
+      <c r="F20" s="7">
+        <v>44896</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="5">
+        <v>14</v>
+      </c>
+      <c r="K20" s="65"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="17"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="5">
         <v>15</v>
-      </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2">
-        <v>16</v>
       </c>
       <c r="D21" s="2">
         <v>32</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2">
+        <v>29</v>
+      </c>
+      <c r="F21" s="7">
+        <v>44896</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="5">
+        <v>15</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="13"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="5">
         <v>16</v>
-      </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2">
-        <v>17</v>
       </c>
       <c r="D22" s="2">
         <v>32</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2">
+        <v>29</v>
+      </c>
+      <c r="F22" s="7">
+        <v>44896</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="5">
+        <v>16</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="13"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="5">
         <v>17</v>
-      </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2">
-        <v>18</v>
       </c>
       <c r="D23" s="2">
         <v>32</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2">
+        <v>29</v>
+      </c>
+      <c r="F23" s="7">
+        <v>44896</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="5">
+        <v>17</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="13"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="5">
         <v>18</v>
-      </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2">
-        <v>19</v>
       </c>
       <c r="D24" s="2">
         <v>32</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7">
+        <v>44896</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="5">
+        <v>18</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="13"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="5">
         <v>19</v>
-      </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2">
-        <v>20</v>
       </c>
       <c r="D25" s="2">
         <v>32</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2">
+        <v>30</v>
+      </c>
+      <c r="F25" s="7">
+        <v>44896</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="5">
+        <v>19</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="13"/>
+    </row>
+    <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
+      <c r="C26" s="5">
         <v>20</v>
       </c>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2">
+      <c r="D26" s="2">
+        <v>32</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="7">
+        <v>44896</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="8">
+        <v>20</v>
+      </c>
+      <c r="K26" s="9"/>
+      <c r="L26" s="14"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="5">
         <v>21</v>
-      </c>
-      <c r="D26" s="2">
-        <v>64</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" s="3">
-        <v>44894</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2">
-        <v>22</v>
       </c>
       <c r="D27" s="2">
         <v>64</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="3">
+        <v>31</v>
+      </c>
+      <c r="F27" s="7">
         <v>44894</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2">
-        <v>23</v>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="5">
+        <v>22</v>
       </c>
       <c r="D28" s="2">
         <v>64</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="3">
+        <v>32</v>
+      </c>
+      <c r="F28" s="7">
         <v>44894</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="1"/>
+      <c r="C29" s="8">
+        <v>23</v>
+      </c>
+      <c r="D29" s="9">
+        <v>64</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="10">
+        <v>44894</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
+  <mergeCells count="10">
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Закупка 2022.xlsx
+++ b/Закупка 2022.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.0.200\обмен\Голубев Д. С\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB2C31A-6D40-4DD5-94FB-AE823123E644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Закупка Осень 2022" sheetId="1" r:id="rId1"/>
     <sheet name="Закупка Зима 2022" sheetId="2" r:id="rId2"/>
+    <sheet name="2023" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="120">
   <si>
     <t>Монитор 24"</t>
   </si>
@@ -212,13 +207,187 @@
   </si>
   <si>
     <t>Трухина Екатерина Александровна</t>
+  </si>
+  <si>
+    <t>Серверная (свич)</t>
+  </si>
+  <si>
+    <t>УФ  4 кабинет</t>
+  </si>
+  <si>
+    <t>Голубев ДС Комп забрали с 5 школы</t>
+  </si>
+  <si>
+    <t>Морозов М</t>
+  </si>
+  <si>
+    <t>Виноградов В</t>
+  </si>
+  <si>
+    <t>МФУ kyocera 2040dn</t>
+  </si>
+  <si>
+    <t>Яна</t>
+  </si>
+  <si>
+    <t>Системники(закупка декабрь 2022)</t>
+  </si>
+  <si>
+    <t>Кобякова Оксана Игоревна</t>
+  </si>
+  <si>
+    <t>Курдюкова Елена Владимировна</t>
+  </si>
+  <si>
+    <t>Чернышова Татьяна Владимировна</t>
+  </si>
+  <si>
+    <t>Виноградов Владислав Сергеевич</t>
+  </si>
+  <si>
+    <t>Кожевникова Ю. В. (МКУ)</t>
+  </si>
+  <si>
+    <t>Волнин М. (Архитектура)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Принтер А3 </t>
+  </si>
+  <si>
+    <t>RouterBoard 951G HnD</t>
+  </si>
+  <si>
+    <t>Талипова 19 каб</t>
+  </si>
+  <si>
+    <t>Сидорова 10 каб</t>
+  </si>
+  <si>
+    <t>Мухина</t>
+  </si>
+  <si>
+    <t>Архитектура 13 каб</t>
+  </si>
+  <si>
+    <t>ПОС (Социально значимые) 2 Этаж Администрация</t>
+  </si>
+  <si>
+    <t>Аккумулятор в 12 кабинет Пугачёва НЮ</t>
+  </si>
+  <si>
+    <t>Взял в долг</t>
+  </si>
+  <si>
+    <t>Поставили</t>
+  </si>
+  <si>
+    <t>HDMI VGI переходник (дума)</t>
+  </si>
+  <si>
+    <t>Чебуняева Нат. Сер УО</t>
+  </si>
+  <si>
+    <t>Кажевникова Ирина (адмиинстрация 16 каб)</t>
+  </si>
+  <si>
+    <t>Мясникова 12 каб</t>
+  </si>
+  <si>
+    <t>Чернила чёрные  (11 кабинет) epson c13t66414a</t>
+  </si>
+  <si>
+    <t>Счёт на оплату № 63 от 17 апреля 2023</t>
+  </si>
+  <si>
+    <t>Чернила цветные  (11 кабинет) epson c13t66414a</t>
+  </si>
+  <si>
+    <t>1 шт</t>
+  </si>
+  <si>
+    <t>3 шт</t>
+  </si>
+  <si>
+    <t>Зуева ЕА</t>
+  </si>
+  <si>
+    <t>Сетевой фильтр (МКУ Татьяна Погодина)</t>
+  </si>
+  <si>
+    <t>Борунова (1С) МУП Звезда</t>
+  </si>
+  <si>
+    <t>SATA переходник по питанию двойной</t>
+  </si>
+  <si>
+    <t>2 шт</t>
+  </si>
+  <si>
+    <t>Бескровная СЕ</t>
+  </si>
+  <si>
+    <t>Сидорова ОА</t>
+  </si>
+  <si>
+    <t>Коршунова</t>
+  </si>
+  <si>
+    <t>SATA переходник по питанию одинарный 1 шт для Коршунова 8 каб Сидорова 10 каб</t>
+  </si>
+  <si>
+    <t>10.05.2023, 18.05.2023</t>
+  </si>
+  <si>
+    <t>Аккумуляторная Батарея для блока бесперебойного питания Сидорова О. А.</t>
+  </si>
+  <si>
+    <t>Счёт на оплату №78 от 29.05.2023</t>
+  </si>
+  <si>
+    <t>карта памяти Micro SD камера для Голубев Д С. (Михаил)</t>
+  </si>
+  <si>
+    <t>hy ddr3 dimm 2Gb (pc3-10600) Оперативная память 2 Гига</t>
+  </si>
+  <si>
+    <t>Счёт на оплату №104 от 29.05.2023</t>
+  </si>
+  <si>
+    <t>Видеокарта MSI N210-1GD3/LP RTL (Паршина ЕС) Комитет</t>
+  </si>
+  <si>
+    <t>VCOM VVG6448-3M кабель монитор SVGA 3 метрам  (Паршина ЕС) Комитет</t>
+  </si>
+  <si>
+    <t>Аккумуляторная Батарея для блока бесперебойного питания Трухина 3 каб Администрация</t>
+  </si>
+  <si>
+    <t>Дмитриева 3 каб Упр. Финансами</t>
+  </si>
+  <si>
+    <t>Павлова Влада 11 кабинет адм</t>
+  </si>
+  <si>
+    <t>Павлова</t>
+  </si>
+  <si>
+    <t>Яковлева 14 кабинет</t>
+  </si>
+  <si>
+    <t>Батарейка Duracel 2032 (BIOS)</t>
+  </si>
+  <si>
+    <t>Взято в долг</t>
+  </si>
+  <si>
+    <t>Молчанова А.А(12 каб)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -775,7 +944,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -804,16 +973,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -826,9 +986,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -842,15 +999,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
@@ -895,6 +1043,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -904,34 +1082,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -994,7 +1163,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1046,7 +1215,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1240,21 +1409,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:N26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C1:S26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
@@ -1267,9 +1436,11 @@
     <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="36.85546875" customWidth="1"/>
     <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:19" ht="15.75" thickBot="1">
       <c r="C1" t="s">
         <v>57</v>
       </c>
@@ -1283,218 +1454,226 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C2" s="42">
+    <row r="2" spans="3:19">
+      <c r="C2" s="35">
         <v>1</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="48">
+      <c r="F2" s="41">
         <v>44861</v>
       </c>
-      <c r="G2" s="42">
+      <c r="G2" s="35">
         <v>1</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="44">
+      <c r="J2" s="37">
         <v>44858</v>
       </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="19"/>
-    </row>
-    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C3" s="16">
+      <c r="K2" s="35"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="16"/>
+    </row>
+    <row r="3" spans="3:19">
+      <c r="C3" s="13">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="49">
+      <c r="F3" s="42">
         <v>44889</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="13">
         <v>2</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="17">
         <v>44866</v>
       </c>
-      <c r="K3" s="16"/>
+      <c r="K3" s="13"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C4" s="16">
+    <row r="4" spans="3:19">
+      <c r="C4" s="13">
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="49">
+      <c r="F4" s="42">
         <v>44895</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="13">
         <v>3</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="17">
         <v>44879</v>
       </c>
-      <c r="K4" s="16"/>
+      <c r="K4" s="13"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C5" s="16">
+    <row r="5" spans="3:19">
+      <c r="C5" s="13">
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F5" s="42">
         <v>44911</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="13">
         <v>4</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="17">
         <v>44883</v>
       </c>
-      <c r="K5" s="16"/>
+      <c r="K5" s="13"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="21">
+    <row r="6" spans="3:19" ht="15.75" thickBot="1">
+      <c r="C6" s="18">
         <v>5</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="53">
+      <c r="F6" s="46">
         <v>44911</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="18">
         <v>5</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="52">
+      <c r="J6" s="45">
         <v>44889</v>
       </c>
-      <c r="K6" s="16"/>
+      <c r="K6" s="13"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="54"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="59"/>
-    </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C8" s="42">
+    <row r="7" spans="3:19" ht="15.75" thickBot="1">
+      <c r="C7" s="47"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="52"/>
+    </row>
+    <row r="8" spans="3:19">
+      <c r="C8" s="35">
         <v>1</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="42">
+      <c r="E8" s="15"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="35">
         <v>1</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="43" t="s">
+      <c r="I8" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="48">
+      <c r="J8" s="41">
         <v>44851</v>
       </c>
-      <c r="K8" s="42">
+      <c r="K8" s="35">
         <v>1</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="43" t="s">
+      <c r="M8" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="44">
+      <c r="N8" s="37">
         <v>44844</v>
       </c>
-    </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C9" s="16">
+      <c r="P8" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R8" s="15"/>
+      <c r="S8" s="16"/>
+    </row>
+    <row r="9" spans="3:19">
+      <c r="C9" s="13">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="55">
         <v>44902</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="13">
         <v>2</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -1503,58 +1682,78 @@
       <c r="I9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="49">
+      <c r="J9" s="42">
         <v>44866</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="13">
         <v>2</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="41" t="s">
+      <c r="M9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="N9" s="20">
+      <c r="N9" s="17">
         <v>44851</v>
       </c>
-    </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C10" s="16">
+      <c r="P9" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R9" s="3"/>
+      <c r="S9" s="6"/>
+    </row>
+    <row r="10" spans="3:19">
+      <c r="C10" s="13">
         <v>3</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="16">
+      <c r="E10" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="55">
+        <v>45006</v>
+      </c>
+      <c r="G10" s="13">
         <v>3</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="41" t="s">
+      <c r="I10" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="49">
+      <c r="J10" s="42">
         <v>44903</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="13">
         <v>3</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="41" t="s">
+      <c r="M10" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="N10" s="20">
+      <c r="N10" s="17">
         <v>44851</v>
       </c>
-    </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C11" s="16">
+      <c r="P10" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R10" s="3"/>
+      <c r="S10" s="6"/>
+    </row>
+    <row r="11" spans="3:19">
+      <c r="C11" s="13">
         <v>4</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -1562,29 +1761,41 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="16">
+      <c r="G11" s="13">
         <v>4</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="16">
+      <c r="I11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="42">
+        <v>45029</v>
+      </c>
+      <c r="K11" s="13">
         <v>4</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M11" s="41" t="s">
+      <c r="M11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="20">
+      <c r="N11" s="17">
         <v>44851</v>
       </c>
-    </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C12" s="16">
+      <c r="P11" s="13">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R11" s="3"/>
+      <c r="S11" s="6"/>
+    </row>
+    <row r="12" spans="3:19">
+      <c r="C12" s="13">
         <v>5</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -1592,29 +1803,45 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="16">
+      <c r="G12" s="13">
         <v>5</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="16">
+      <c r="I12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" s="42">
+        <v>45077</v>
+      </c>
+      <c r="K12" s="13">
         <v>5</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="41" t="s">
+      <c r="M12" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="N12" s="20">
+      <c r="N12" s="17">
         <v>44851</v>
       </c>
-    </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C13" s="16">
+      <c r="P12" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="S12" s="17">
+        <v>45034</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19">
+      <c r="C13" s="13">
         <v>6</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -1622,29 +1849,45 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="16">
+      <c r="G13" s="13">
         <v>6</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="16">
+      <c r="I13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J13" s="42">
+        <v>45085</v>
+      </c>
+      <c r="K13" s="13">
         <v>6</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M13" s="41" t="s">
+      <c r="M13" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="N13" s="20">
+      <c r="N13" s="17">
         <v>44851</v>
       </c>
-    </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C14" s="16">
+      <c r="P13" s="13">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="S13" s="17">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19">
+      <c r="C14" s="13">
         <v>7</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -1652,7 +1895,7 @@
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="16">
+      <c r="G14" s="13">
         <v>7</v>
       </c>
       <c r="H14" s="3" t="s">
@@ -1660,21 +1903,29 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="16">
+      <c r="K14" s="13">
         <v>7</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="41" t="s">
+      <c r="M14" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="N14" s="20">
+      <c r="N14" s="17">
         <v>44851</v>
       </c>
-    </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C15" s="16">
+      <c r="P14" s="13">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R14" s="3"/>
+      <c r="S14" s="6"/>
+    </row>
+    <row r="15" spans="3:19">
+      <c r="C15" s="13">
         <v>8</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -1682,7 +1933,7 @@
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="16">
+      <c r="G15" s="13">
         <v>8</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -1690,21 +1941,29 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="16">
+      <c r="K15" s="13">
         <v>8</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="41" t="s">
+      <c r="M15" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="N15" s="20">
+      <c r="N15" s="17">
         <v>44851</v>
       </c>
-    </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C16" s="16">
+      <c r="P15" s="13">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R15" s="3"/>
+      <c r="S15" s="6"/>
+    </row>
+    <row r="16" spans="3:19">
+      <c r="C16" s="13">
         <v>9</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -1712,7 +1971,7 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="16">
+      <c r="G16" s="13">
         <v>9</v>
       </c>
       <c r="H16" s="3" t="s">
@@ -1720,85 +1979,104 @@
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="11"/>
-      <c r="K16" s="16">
+      <c r="K16" s="13">
         <v>9</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M16" s="41" t="s">
+      <c r="M16" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="N16" s="20">
+      <c r="N16" s="17">
         <v>44851</v>
       </c>
-    </row>
-    <row r="17" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="21">
+      <c r="P16" s="13">
+        <v>9</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R16" s="3"/>
+      <c r="S16" s="6"/>
+    </row>
+    <row r="17" spans="3:19" ht="15.75" thickBot="1">
+      <c r="C17" s="18">
         <v>10</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="21">
+      <c r="E17" s="19"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="18">
         <v>10</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="21">
+      <c r="I17" s="19"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="18">
         <v>10</v>
       </c>
-      <c r="L17" s="22" t="s">
+      <c r="L17" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="51" t="s">
+      <c r="M17" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="N17" s="52">
+      <c r="N17" s="45">
         <v>44874</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F21" s="45"/>
-    </row>
-    <row r="22" spans="3:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F22" s="46"/>
-    </row>
-    <row r="26" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E26" s="47"/>
+      <c r="P17" s="18">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="R17" s="19"/>
+      <c r="S17" s="14"/>
+    </row>
+    <row r="21" spans="3:19" ht="15.75">
+      <c r="F21" s="38"/>
+    </row>
+    <row r="22" spans="3:19" ht="16.5">
+      <c r="F22" s="39"/>
+    </row>
+    <row r="26" spans="3:19" ht="15.75">
+      <c r="E26" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:O29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.140625" customWidth="1"/>
     <col min="14" max="14" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.5703125" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1811,7 +2089,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1824,7 +2102,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" ht="15.75" thickBot="1">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1837,111 +2115,115 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" ht="16.5" thickBot="1">
       <c r="B5" s="1"/>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="71" t="s">
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="71" t="s">
+      <c r="H5" s="64"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="61" t="s">
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="62"/>
-      <c r="O5" s="63"/>
-    </row>
-    <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="67"/>
+      <c r="O5" s="68"/>
+    </row>
+    <row r="6" spans="2:15" ht="15.75" thickBot="1">
       <c r="B6" s="1"/>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="40" t="s">
+      <c r="I6" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="36" t="s">
+      <c r="J6" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="K6" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="40" t="s">
+      <c r="L6" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="M6" s="36" t="s">
+      <c r="M6" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="37" t="s">
+      <c r="N6" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="O6" s="38" t="s">
+      <c r="O6" s="31" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15">
       <c r="B7" s="1"/>
-      <c r="C7" s="26">
+      <c r="C7" s="22">
         <v>1</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="23">
         <v>32</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="25">
         <v>44896</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="61">
         <v>1</v>
       </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="26">
+      <c r="H7" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="57">
+        <v>44945</v>
+      </c>
+      <c r="J7" s="22">
         <v>1</v>
       </c>
-      <c r="K7" s="27" t="s">
+      <c r="K7" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="32">
+      <c r="L7" s="57">
         <v>44895</v>
       </c>
-      <c r="M7" s="33">
+      <c r="M7" s="26">
         <v>1</v>
       </c>
-      <c r="N7" s="34" t="s">
+      <c r="N7" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="35">
+      <c r="O7" s="28">
         <v>44901</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15">
       <c r="B8" s="1"/>
       <c r="C8" s="5">
         <v>2</v>
@@ -1955,31 +2237,35 @@
       <c r="F8" s="7">
         <v>44896</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="62">
         <v>2</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="15"/>
+      <c r="H8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="58">
+        <v>44945</v>
+      </c>
       <c r="J8" s="5">
         <v>2</v>
       </c>
-      <c r="K8" s="68" t="s">
+      <c r="K8" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="69">
+      <c r="L8" s="74">
         <v>44895</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="13">
         <v>2</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8" s="17">
         <v>44915</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15">
       <c r="B9" s="1"/>
       <c r="C9" s="5">
         <v>3</v>
@@ -1993,23 +2279,27 @@
       <c r="F9" s="7">
         <v>44896</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="62">
         <v>3</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="15"/>
+      <c r="H9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="58">
+        <v>44945</v>
+      </c>
       <c r="J9" s="5">
         <v>3</v>
       </c>
-      <c r="K9" s="68"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="16">
+      <c r="K9" s="73"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="13">
         <v>3</v>
       </c>
       <c r="N9" s="3"/>
-      <c r="O9" s="6"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O9" s="17"/>
+    </row>
+    <row r="10" spans="2:15">
       <c r="B10" s="1"/>
       <c r="C10" s="5">
         <v>4</v>
@@ -2023,27 +2313,31 @@
       <c r="F10" s="7">
         <v>44896</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="62">
         <v>4</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="15"/>
+      <c r="H10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="58">
+        <v>44945</v>
+      </c>
       <c r="J10" s="5">
         <v>4</v>
       </c>
-      <c r="K10" s="68" t="s">
+      <c r="K10" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="69">
+      <c r="L10" s="74">
         <v>44896</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="13">
         <v>4</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="6"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15">
       <c r="B11" s="1"/>
       <c r="C11" s="5">
         <v>5</v>
@@ -2057,23 +2351,27 @@
       <c r="F11" s="7">
         <v>44896</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="62">
         <v>5</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="15"/>
+      <c r="H11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="58">
+        <v>44986</v>
+      </c>
       <c r="J11" s="5">
         <v>5</v>
       </c>
-      <c r="K11" s="68"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="16">
+      <c r="K11" s="73"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="13">
         <v>5</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="6"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15">
       <c r="B12" s="1"/>
       <c r="C12" s="5">
         <v>6</v>
@@ -2087,27 +2385,31 @@
       <c r="F12" s="7">
         <v>44896</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="62">
         <v>6</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="15"/>
+      <c r="H12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="58">
+        <v>45022</v>
+      </c>
       <c r="J12" s="5">
         <v>6</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="58">
         <v>44903</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="13">
         <v>6</v>
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="6"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15">
       <c r="B13" s="1"/>
       <c r="C13" s="5">
         <v>7</v>
@@ -2121,27 +2423,31 @@
       <c r="F13" s="7">
         <v>44896</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="62">
         <v>7</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="15"/>
+      <c r="H13" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="58">
+        <v>45063</v>
+      </c>
       <c r="J13" s="5">
         <v>7</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="58">
         <v>44908</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="13">
         <v>7</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="6"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15">
       <c r="B14" s="1"/>
       <c r="C14" s="5">
         <v>8</v>
@@ -2155,27 +2461,31 @@
       <c r="F14" s="7">
         <v>44896</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="62">
         <v>8</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="15"/>
+      <c r="H14" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" s="58">
+        <v>45064</v>
+      </c>
       <c r="J14" s="5">
         <v>8</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="58">
         <v>44908</v>
       </c>
-      <c r="M14" s="16">
+      <c r="M14" s="13">
         <v>8</v>
       </c>
       <c r="N14" s="3"/>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15">
       <c r="B15" s="1"/>
       <c r="C15" s="5">
         <v>9</v>
@@ -2189,27 +2499,31 @@
       <c r="F15" s="7">
         <v>44896</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="62">
         <v>9</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="15"/>
+      <c r="H15" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I15" s="58">
+        <v>45056</v>
+      </c>
       <c r="J15" s="5">
         <v>9</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="58">
         <v>44908</v>
       </c>
-      <c r="M15" s="16">
+      <c r="M15" s="13">
         <v>9</v>
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="6"/>
     </row>
-    <row r="16" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:15" ht="15.75" thickBot="1">
       <c r="B16" s="1"/>
       <c r="C16" s="5">
         <v>10</v>
@@ -2223,27 +2537,27 @@
       <c r="F16" s="7">
         <v>44896</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="21">
         <v>10</v>
       </c>
       <c r="H16" s="9"/>
-      <c r="I16" s="23"/>
+      <c r="I16" s="20"/>
       <c r="J16" s="5">
         <v>10</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="58">
         <v>44910</v>
       </c>
-      <c r="M16" s="16">
+      <c r="M16" s="13">
         <v>10</v>
       </c>
       <c r="N16" s="3"/>
       <c r="O16" s="6"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16">
       <c r="B17" s="1"/>
       <c r="C17" s="5">
         <v>11</v>
@@ -2263,17 +2577,17 @@
       <c r="J17" s="5">
         <v>11</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="58">
         <v>44911</v>
       </c>
-      <c r="M17" s="16"/>
+      <c r="M17" s="13"/>
       <c r="N17" s="3"/>
       <c r="O17" s="6"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16">
       <c r="B18" s="1"/>
       <c r="C18" s="5">
         <v>12</v>
@@ -2293,17 +2607,17 @@
       <c r="J18" s="5">
         <v>12</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="58">
         <v>44911</v>
       </c>
-      <c r="M18" s="16"/>
+      <c r="M18" s="13"/>
       <c r="N18" s="3"/>
       <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16">
       <c r="B19" s="1"/>
       <c r="C19" s="5">
         <v>13</v>
@@ -2323,17 +2637,17 @@
       <c r="J19" s="5">
         <v>13</v>
       </c>
-      <c r="K19" s="64" t="s">
+      <c r="K19" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="L19" s="66">
+      <c r="L19" s="71">
         <v>44911</v>
       </c>
-      <c r="M19" s="16"/>
+      <c r="M19" s="13"/>
       <c r="N19" s="3"/>
       <c r="O19" s="6"/>
     </row>
-    <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16" ht="15.75" thickBot="1">
       <c r="B20" s="1"/>
       <c r="C20" s="5">
         <v>14</v>
@@ -2353,13 +2667,13 @@
       <c r="J20" s="5">
         <v>14</v>
       </c>
-      <c r="K20" s="65"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="17"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K20" s="70"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="14"/>
+    </row>
+    <row r="21" spans="2:16">
       <c r="B21" s="1"/>
       <c r="C21" s="5">
         <v>15</v>
@@ -2379,10 +2693,12 @@
       <c r="J21" s="5">
         <v>15</v>
       </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="13"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L21" s="59"/>
+    </row>
+    <row r="22" spans="2:16">
       <c r="B22" s="1"/>
       <c r="C22" s="5">
         <v>16</v>
@@ -2402,10 +2718,14 @@
       <c r="J22" s="5">
         <v>16</v>
       </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="13"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L22" s="60">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16">
       <c r="B23" s="1"/>
       <c r="C23" s="5">
         <v>17</v>
@@ -2425,10 +2745,14 @@
       <c r="J23" s="5">
         <v>17</v>
       </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="13"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K23" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L23" s="60">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16">
       <c r="B24" s="1"/>
       <c r="C24" s="5">
         <v>18</v>
@@ -2437,7 +2761,7 @@
         <v>32</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F24" s="7">
         <v>44896</v>
@@ -2448,10 +2772,14 @@
       <c r="J24" s="5">
         <v>18</v>
       </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="13"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K24" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L24" s="60">
+        <v>45026</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16">
       <c r="B25" s="1"/>
       <c r="C25" s="5">
         <v>19</v>
@@ -2471,10 +2799,14 @@
       <c r="J25" s="5">
         <v>19</v>
       </c>
-      <c r="K25" s="2"/>
-      <c r="L25" s="13"/>
-    </row>
-    <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K25" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L25" s="7">
+        <v>45100</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" ht="15.75" thickBot="1">
       <c r="B26" s="1"/>
       <c r="C26" s="5">
         <v>20</v>
@@ -2495,9 +2827,9 @@
         <v>20</v>
       </c>
       <c r="K26" s="9"/>
-      <c r="L26" s="14"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L26" s="12"/>
+    </row>
+    <row r="27" spans="2:16">
       <c r="B27" s="1"/>
       <c r="C27" s="5">
         <v>21</v>
@@ -2518,7 +2850,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16">
       <c r="B28" s="1"/>
       <c r="C28" s="5">
         <v>22</v>
@@ -2539,7 +2871,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:16" ht="15.75" thickBot="1">
       <c r="B29" s="1"/>
       <c r="C29" s="8">
         <v>23</v>
@@ -2559,6 +2891,140 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
+    </row>
+    <row r="32" spans="2:16">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="H32" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="N32" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P32" s="54">
+        <v>45007</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" s="54">
+        <v>44965</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L33" s="54">
+        <v>44951</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P33" s="54">
+        <v>45007</v>
+      </c>
+    </row>
+    <row r="34" spans="3:16">
+      <c r="C34" s="3"/>
+      <c r="D34" s="3">
+        <v>2</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" s="54">
+        <v>45006</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="J34" s="3">
+        <v>2</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L34" s="54">
+        <v>44972</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="P34" s="54">
+        <v>45007</v>
+      </c>
+    </row>
+    <row r="35" spans="3:16">
+      <c r="C35" s="3"/>
+      <c r="D35" s="3">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="J35" s="3">
+        <v>3</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L35" s="54">
+        <v>44974</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16">
+      <c r="J36" s="3">
+        <v>4</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L36" s="54">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="37" spans="3:16">
+      <c r="J37" s="3">
+        <v>5</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L37" s="54">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="38" spans="3:16">
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2574,6 +3040,260 @@
     <mergeCell ref="L10:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:E30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="80.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5">
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5">
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="56">
+        <v>45013</v>
+      </c>
+      <c r="D3" s="56">
+        <v>45014</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="56">
+        <v>45013</v>
+      </c>
+      <c r="D4" s="56">
+        <v>45014</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="56">
+        <v>45033</v>
+      </c>
+      <c r="D5" s="56">
+        <v>45033</v>
+      </c>
+      <c r="E5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="56">
+        <v>45033</v>
+      </c>
+      <c r="D6" s="56">
+        <v>45033</v>
+      </c>
+      <c r="E6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="56">
+        <v>45034</v>
+      </c>
+      <c r="E7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="D8" s="56"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="56"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="56">
+        <v>45056</v>
+      </c>
+      <c r="E11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="56">
+        <v>45056</v>
+      </c>
+      <c r="E13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="56">
+        <v>45063</v>
+      </c>
+      <c r="E14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="56">
+        <v>45070</v>
+      </c>
+      <c r="E15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="56">
+        <v>45040</v>
+      </c>
+      <c r="E16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="56">
+        <v>45075</v>
+      </c>
+      <c r="E20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="56">
+        <v>45075</v>
+      </c>
+      <c r="E21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="C22" s="56"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="C23" s="56"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="C24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="56">
+        <v>45090</v>
+      </c>
+      <c r="D25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="56">
+        <v>45090</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="56">
+        <v>45090</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="56">
+        <v>45090</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="56">
+        <v>45090</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="C30" s="56"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Закупка 2022.xlsx
+++ b/Закупка 2022.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Закупка Осень 2022" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="124">
   <si>
     <t>Монитор 24"</t>
   </si>
@@ -381,6 +381,18 @@
   </si>
   <si>
     <t>Молчанова А.А(12 каб)</t>
+  </si>
+  <si>
+    <t>Осипов</t>
+  </si>
+  <si>
+    <t>Столярова Г.В.</t>
+  </si>
+  <si>
+    <t>Кабинет 5 Управление образованием</t>
+  </si>
+  <si>
+    <t>Левинская</t>
   </si>
 </sst>
 </file>
@@ -944,7 +956,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -973,9 +985,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -983,9 +992,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1062,6 +1068,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1420,7 +1429,7 @@
   <dimension ref="C1:S26"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1455,225 +1464,225 @@
       </c>
     </row>
     <row r="2" spans="3:19">
-      <c r="C2" s="35">
+      <c r="C2" s="33">
         <v>1</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="41">
+      <c r="F2" s="39">
         <v>44861</v>
       </c>
-      <c r="G2" s="35">
+      <c r="G2" s="33">
         <v>1</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="37">
+      <c r="J2" s="35">
         <v>44858</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="16"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="15"/>
     </row>
     <row r="3" spans="3:19">
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="40">
         <v>44889</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="12">
         <v>2</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="16">
         <v>44866</v>
       </c>
-      <c r="K3" s="13"/>
+      <c r="K3" s="12"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="3:19">
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="42">
+      <c r="F4" s="40">
         <v>44895</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <v>3</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="16">
         <v>44879</v>
       </c>
-      <c r="K4" s="13"/>
+      <c r="K4" s="12"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="6"/>
     </row>
     <row r="5" spans="3:19">
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="40">
         <v>44911</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <v>4</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="16">
         <v>44883</v>
       </c>
-      <c r="K5" s="13"/>
+      <c r="K5" s="12"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="6"/>
     </row>
     <row r="6" spans="3:19" ht="15.75" thickBot="1">
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <v>5</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="44">
         <v>44911</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="17">
         <v>5</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="I6" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="45">
+      <c r="J6" s="43">
         <v>44889</v>
       </c>
-      <c r="K6" s="13"/>
+      <c r="K6" s="12"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="3:19" ht="15.75" thickBot="1">
-      <c r="C7" s="47"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="52"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="50"/>
     </row>
     <row r="8" spans="3:19">
-      <c r="C8" s="35">
+      <c r="C8" s="33">
         <v>1</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="35">
+      <c r="E8" s="14"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="33">
         <v>1</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="I8" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J8" s="39">
         <v>44851</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8" s="33">
         <v>1</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="36" t="s">
+      <c r="M8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="37">
+      <c r="N8" s="35">
         <v>44844</v>
       </c>
-      <c r="P8" s="35">
+      <c r="P8" s="33">
         <v>1</v>
       </c>
-      <c r="Q8" s="15" t="s">
+      <c r="Q8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="R8" s="15"/>
-      <c r="S8" s="16"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="15"/>
     </row>
     <row r="9" spans="3:19">
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="55">
+      <c r="F9" s="53">
         <v>44902</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="12">
         <v>2</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -1682,22 +1691,22 @@
       <c r="I9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="42">
+      <c r="J9" s="40">
         <v>44866</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="12">
         <v>2</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="34" t="s">
+      <c r="M9" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="16">
         <v>44851</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="12">
         <v>2</v>
       </c>
       <c r="Q9" s="3" t="s">
@@ -1707,43 +1716,43 @@
       <c r="S9" s="6"/>
     </row>
     <row r="10" spans="3:19">
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>3</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="55">
+      <c r="F10" s="53">
         <v>45006</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="12">
         <v>3</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="42">
+      <c r="J10" s="40">
         <v>44903</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="12">
         <v>3</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="34" t="s">
+      <c r="M10" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N10" s="16">
         <v>44851</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="12">
         <v>3</v>
       </c>
       <c r="Q10" s="3" t="s">
@@ -1753,7 +1762,7 @@
       <c r="S10" s="6"/>
     </row>
     <row r="11" spans="3:19">
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>4</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -1761,7 +1770,7 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="13">
+      <c r="G11" s="12">
         <v>4</v>
       </c>
       <c r="H11" s="3" t="s">
@@ -1770,22 +1779,22 @@
       <c r="I11" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J11" s="42">
+      <c r="J11" s="40">
         <v>45029</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="12">
         <v>4</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M11" s="34" t="s">
+      <c r="M11" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N11" s="16">
         <v>44851</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="12">
         <v>4</v>
       </c>
       <c r="Q11" s="3" t="s">
@@ -1795,7 +1804,7 @@
       <c r="S11" s="6"/>
     </row>
     <row r="12" spans="3:19">
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>5</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -1803,7 +1812,7 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="13">
+      <c r="G12" s="12">
         <v>5</v>
       </c>
       <c r="H12" s="3" t="s">
@@ -1812,22 +1821,22 @@
       <c r="I12" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="J12" s="42">
+      <c r="J12" s="40">
         <v>45077</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="12">
         <v>5</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="34" t="s">
+      <c r="M12" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N12" s="16">
         <v>44851</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="12">
         <v>5</v>
       </c>
       <c r="Q12" s="3" t="s">
@@ -1836,12 +1845,12 @@
       <c r="R12" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="S12" s="17">
+      <c r="S12" s="16">
         <v>45034</v>
       </c>
     </row>
     <row r="13" spans="3:19">
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <v>6</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -1849,7 +1858,7 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="13">
+      <c r="G13" s="12">
         <v>6</v>
       </c>
       <c r="H13" s="3" t="s">
@@ -1858,22 +1867,22 @@
       <c r="I13" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="J13" s="42">
+      <c r="J13" s="40">
         <v>45085</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="12">
         <v>6</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M13" s="34" t="s">
+      <c r="M13" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="N13" s="17">
+      <c r="N13" s="16">
         <v>44851</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="12">
         <v>6</v>
       </c>
       <c r="Q13" s="3" t="s">
@@ -1882,12 +1891,12 @@
       <c r="R13" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="S13" s="17">
+      <c r="S13" s="16">
         <v>45085</v>
       </c>
     </row>
     <row r="14" spans="3:19">
-      <c r="C14" s="13">
+      <c r="C14" s="12">
         <v>7</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -1895,37 +1904,45 @@
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="13">
+      <c r="G14" s="12">
         <v>7</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="13">
+      <c r="I14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" s="40">
+        <v>45145</v>
+      </c>
+      <c r="K14" s="12">
         <v>7</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="34" t="s">
+      <c r="M14" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="N14" s="17">
+      <c r="N14" s="16">
         <v>44851</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P14" s="12">
         <v>7</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="R14" s="3"/>
-      <c r="S14" s="6"/>
+      <c r="R14" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="S14" s="16">
+        <v>45148</v>
+      </c>
     </row>
     <row r="15" spans="3:19">
-      <c r="C15" s="13">
+      <c r="C15" s="12">
         <v>8</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -1933,7 +1950,7 @@
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="13">
+      <c r="G15" s="12">
         <v>8</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -1941,19 +1958,19 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="13">
+      <c r="K15" s="12">
         <v>8</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="34" t="s">
+      <c r="M15" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="N15" s="17">
+      <c r="N15" s="16">
         <v>44851</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P15" s="12">
         <v>8</v>
       </c>
       <c r="Q15" s="3" t="s">
@@ -1963,7 +1980,7 @@
       <c r="S15" s="6"/>
     </row>
     <row r="16" spans="3:19">
-      <c r="C16" s="13">
+      <c r="C16" s="12">
         <v>9</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -1971,7 +1988,7 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="13">
+      <c r="G16" s="12">
         <v>9</v>
       </c>
       <c r="H16" s="3" t="s">
@@ -1979,19 +1996,19 @@
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="11"/>
-      <c r="K16" s="13">
+      <c r="K16" s="12">
         <v>9</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M16" s="34" t="s">
+      <c r="M16" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="N16" s="17">
+      <c r="N16" s="16">
         <v>44851</v>
       </c>
-      <c r="P16" s="13">
+      <c r="P16" s="12">
         <v>9</v>
       </c>
       <c r="Q16" s="3" t="s">
@@ -2001,51 +2018,51 @@
       <c r="S16" s="6"/>
     </row>
     <row r="17" spans="3:19" ht="15.75" thickBot="1">
-      <c r="C17" s="18">
+      <c r="C17" s="17">
         <v>10</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="18">
+      <c r="E17" s="18"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="17">
         <v>10</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="18">
+      <c r="I17" s="18"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="17">
         <v>10</v>
       </c>
-      <c r="L17" s="19" t="s">
+      <c r="L17" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="44" t="s">
+      <c r="M17" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="N17" s="45">
+      <c r="N17" s="43">
         <v>44874</v>
       </c>
-      <c r="P17" s="18">
+      <c r="P17" s="17">
         <v>10</v>
       </c>
-      <c r="Q17" s="19" t="s">
+      <c r="Q17" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="R17" s="19"/>
-      <c r="S17" s="14"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="13"/>
     </row>
     <row r="21" spans="3:19" ht="15.75">
-      <c r="F21" s="38"/>
+      <c r="F21" s="36"/>
     </row>
     <row r="22" spans="3:19" ht="16.5">
-      <c r="F22" s="39"/>
+      <c r="F22" s="37"/>
     </row>
     <row r="26" spans="3:19" ht="15.75">
-      <c r="E26" s="40"/>
+      <c r="E26" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2057,8 +2074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2117,109 +2134,109 @@
     </row>
     <row r="5" spans="2:15" ht="16.5" thickBot="1">
       <c r="B5" s="1"/>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="63" t="s">
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="64"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="63" t="s">
+      <c r="H5" s="63"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="66" t="s">
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="67"/>
-      <c r="O5" s="68"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="67"/>
     </row>
     <row r="6" spans="2:15" ht="15.75" thickBot="1">
       <c r="B6" s="1"/>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="29" t="s">
+      <c r="J6" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="K6" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="33" t="s">
+      <c r="L6" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="M6" s="29" t="s">
+      <c r="M6" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="30" t="s">
+      <c r="N6" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="O6" s="31" t="s">
+      <c r="O6" s="29" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="2:15">
       <c r="B7" s="1"/>
-      <c r="C7" s="22">
+      <c r="C7" s="20">
         <v>1</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="21">
         <v>32</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="23">
         <v>44896</v>
       </c>
-      <c r="G7" s="61">
+      <c r="G7" s="59">
         <v>1</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="57">
+      <c r="I7" s="55">
         <v>44945</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="20">
         <v>1</v>
       </c>
-      <c r="K7" s="24" t="s">
+      <c r="K7" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="57">
+      <c r="L7" s="55">
         <v>44895</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7" s="24">
         <v>1</v>
       </c>
-      <c r="N7" s="27" t="s">
+      <c r="N7" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="28">
+      <c r="O7" s="26">
         <v>44901</v>
       </c>
     </row>
@@ -2237,31 +2254,31 @@
       <c r="F8" s="7">
         <v>44896</v>
       </c>
-      <c r="G8" s="62">
+      <c r="G8" s="60">
         <v>2</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="58">
+      <c r="I8" s="56">
         <v>44945</v>
       </c>
       <c r="J8" s="5">
         <v>2</v>
       </c>
-      <c r="K8" s="73" t="s">
+      <c r="K8" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="74">
+      <c r="L8" s="73">
         <v>44895</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="12">
         <v>2</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O8" s="16">
         <v>44915</v>
       </c>
     </row>
@@ -2279,25 +2296,25 @@
       <c r="F9" s="7">
         <v>44896</v>
       </c>
-      <c r="G9" s="62">
+      <c r="G9" s="60">
         <v>3</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I9" s="58">
+      <c r="I9" s="56">
         <v>44945</v>
       </c>
       <c r="J9" s="5">
         <v>3</v>
       </c>
-      <c r="K9" s="73"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="13">
+      <c r="K9" s="72"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="12">
         <v>3</v>
       </c>
       <c r="N9" s="3"/>
-      <c r="O9" s="17"/>
+      <c r="O9" s="16"/>
     </row>
     <row r="10" spans="2:15">
       <c r="B10" s="1"/>
@@ -2313,25 +2330,25 @@
       <c r="F10" s="7">
         <v>44896</v>
       </c>
-      <c r="G10" s="62">
+      <c r="G10" s="60">
         <v>4</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="58">
+      <c r="I10" s="56">
         <v>44945</v>
       </c>
       <c r="J10" s="5">
         <v>4</v>
       </c>
-      <c r="K10" s="73" t="s">
+      <c r="K10" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="74">
+      <c r="L10" s="73">
         <v>44896</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="12">
         <v>4</v>
       </c>
       <c r="N10" s="3"/>
@@ -2351,21 +2368,21 @@
       <c r="F11" s="7">
         <v>44896</v>
       </c>
-      <c r="G11" s="62">
+      <c r="G11" s="60">
         <v>5</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="58">
+      <c r="I11" s="56">
         <v>44986</v>
       </c>
       <c r="J11" s="5">
         <v>5</v>
       </c>
-      <c r="K11" s="73"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="13">
+      <c r="K11" s="72"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="12">
         <v>5</v>
       </c>
       <c r="N11" s="3"/>
@@ -2385,13 +2402,13 @@
       <c r="F12" s="7">
         <v>44896</v>
       </c>
-      <c r="G12" s="62">
+      <c r="G12" s="60">
         <v>6</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I12" s="58">
+      <c r="I12" s="56">
         <v>45022</v>
       </c>
       <c r="J12" s="5">
@@ -2400,10 +2417,10 @@
       <c r="K12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="58">
+      <c r="L12" s="56">
         <v>44903</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="12">
         <v>6</v>
       </c>
       <c r="N12" s="3"/>
@@ -2423,13 +2440,13 @@
       <c r="F13" s="7">
         <v>44896</v>
       </c>
-      <c r="G13" s="62">
+      <c r="G13" s="60">
         <v>7</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I13" s="58">
+      <c r="I13" s="56">
         <v>45063</v>
       </c>
       <c r="J13" s="5">
@@ -2438,10 +2455,10 @@
       <c r="K13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L13" s="58">
+      <c r="L13" s="56">
         <v>44908</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="12">
         <v>7</v>
       </c>
       <c r="N13" s="3"/>
@@ -2461,13 +2478,13 @@
       <c r="F14" s="7">
         <v>44896</v>
       </c>
-      <c r="G14" s="62">
+      <c r="G14" s="60">
         <v>8</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I14" s="58">
+      <c r="I14" s="56">
         <v>45064</v>
       </c>
       <c r="J14" s="5">
@@ -2476,10 +2493,10 @@
       <c r="K14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L14" s="58">
+      <c r="L14" s="56">
         <v>44908</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="12">
         <v>8</v>
       </c>
       <c r="N14" s="3"/>
@@ -2499,13 +2516,13 @@
       <c r="F15" s="7">
         <v>44896</v>
       </c>
-      <c r="G15" s="62">
+      <c r="G15" s="60">
         <v>9</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I15" s="58">
+      <c r="I15" s="56">
         <v>45056</v>
       </c>
       <c r="J15" s="5">
@@ -2514,10 +2531,10 @@
       <c r="K15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="L15" s="58">
+      <c r="L15" s="56">
         <v>44908</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="12">
         <v>9</v>
       </c>
       <c r="N15" s="3"/>
@@ -2537,21 +2554,25 @@
       <c r="F16" s="7">
         <v>44896</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="19">
         <v>10</v>
       </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="20"/>
+      <c r="H16" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="I16" s="61">
+        <v>45114</v>
+      </c>
       <c r="J16" s="5">
         <v>10</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="L16" s="58">
+      <c r="L16" s="56">
         <v>44910</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="12">
         <v>10</v>
       </c>
       <c r="N16" s="3"/>
@@ -2580,10 +2601,10 @@
       <c r="K17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L17" s="58">
+      <c r="L17" s="56">
         <v>44911</v>
       </c>
-      <c r="M17" s="13"/>
+      <c r="M17" s="12"/>
       <c r="N17" s="3"/>
       <c r="O17" s="6"/>
     </row>
@@ -2610,10 +2631,10 @@
       <c r="K18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L18" s="58">
+      <c r="L18" s="56">
         <v>44911</v>
       </c>
-      <c r="M18" s="13"/>
+      <c r="M18" s="12"/>
       <c r="N18" s="3"/>
       <c r="O18" s="6"/>
     </row>
@@ -2637,13 +2658,13 @@
       <c r="J19" s="5">
         <v>13</v>
       </c>
-      <c r="K19" s="69" t="s">
+      <c r="K19" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="L19" s="71">
+      <c r="L19" s="70">
         <v>44911</v>
       </c>
-      <c r="M19" s="13"/>
+      <c r="M19" s="12"/>
       <c r="N19" s="3"/>
       <c r="O19" s="6"/>
     </row>
@@ -2667,11 +2688,11 @@
       <c r="J20" s="5">
         <v>14</v>
       </c>
-      <c r="K20" s="70"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="14"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="13"/>
     </row>
     <row r="21" spans="2:16">
       <c r="B21" s="1"/>
@@ -2696,7 +2717,7 @@
       <c r="K21" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L21" s="59"/>
+      <c r="L21" s="57"/>
     </row>
     <row r="22" spans="2:16">
       <c r="B22" s="1"/>
@@ -2721,7 +2742,7 @@
       <c r="K22" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="L22" s="60">
+      <c r="L22" s="58">
         <v>44965</v>
       </c>
     </row>
@@ -2748,7 +2769,7 @@
       <c r="K23" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="L23" s="60">
+      <c r="L23" s="58">
         <v>44986</v>
       </c>
     </row>
@@ -2775,7 +2796,7 @@
       <c r="K24" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="L24" s="60">
+      <c r="L24" s="58">
         <v>45026</v>
       </c>
     </row>
@@ -2826,8 +2847,12 @@
       <c r="J26" s="8">
         <v>20</v>
       </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="12"/>
+      <c r="K26" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="L26" s="10">
+        <v>45120</v>
+      </c>
     </row>
     <row r="27" spans="2:16">
       <c r="B27" s="1"/>
@@ -2913,7 +2938,7 @@
       <c r="O32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P32" s="54">
+      <c r="P32" s="52">
         <v>45007</v>
       </c>
     </row>
@@ -2925,7 +2950,7 @@
       <c r="E33" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F33" s="54">
+      <c r="F33" s="52">
         <v>44965</v>
       </c>
       <c r="H33" s="3" t="s">
@@ -2937,7 +2962,7 @@
       <c r="K33" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="L33" s="54">
+      <c r="L33" s="52">
         <v>44951</v>
       </c>
       <c r="N33" s="3" t="s">
@@ -2946,7 +2971,7 @@
       <c r="O33" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="P33" s="54">
+      <c r="P33" s="52">
         <v>45007</v>
       </c>
     </row>
@@ -2958,7 +2983,7 @@
       <c r="E34" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F34" s="54">
+      <c r="F34" s="52">
         <v>45006</v>
       </c>
       <c r="H34" s="3"/>
@@ -2968,7 +2993,7 @@
       <c r="K34" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="L34" s="54">
+      <c r="L34" s="52">
         <v>44972</v>
       </c>
       <c r="N34" s="3" t="s">
@@ -2977,7 +3002,7 @@
       <c r="O34" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="P34" s="54">
+      <c r="P34" s="52">
         <v>45007</v>
       </c>
     </row>
@@ -2995,7 +3020,7 @@
       <c r="K35" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="L35" s="54">
+      <c r="L35" s="52">
         <v>44974</v>
       </c>
     </row>
@@ -3006,7 +3031,7 @@
       <c r="K36" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="L36" s="54">
+      <c r="L36" s="52">
         <v>44927</v>
       </c>
     </row>
@@ -3017,7 +3042,7 @@
       <c r="K37" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="L37" s="54">
+      <c r="L37" s="52">
         <v>45041</v>
       </c>
     </row>
@@ -3048,7 +3073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -3076,10 +3101,10 @@
       <c r="B3" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="56">
+      <c r="C3" s="54">
         <v>45013</v>
       </c>
-      <c r="D3" s="56">
+      <c r="D3" s="54">
         <v>45014</v>
       </c>
     </row>
@@ -3087,10 +3112,10 @@
       <c r="B4" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="56">
+      <c r="C4" s="54">
         <v>45013</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="54">
         <v>45014</v>
       </c>
     </row>
@@ -3098,10 +3123,10 @@
       <c r="B5" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="56">
+      <c r="C5" s="54">
         <v>45033</v>
       </c>
-      <c r="D5" s="56">
+      <c r="D5" s="54">
         <v>45033</v>
       </c>
       <c r="E5" t="s">
@@ -3112,10 +3137,10 @@
       <c r="B6" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="56">
+      <c r="C6" s="54">
         <v>45033</v>
       </c>
-      <c r="D6" s="56">
+      <c r="D6" s="54">
         <v>45033</v>
       </c>
       <c r="E6" t="s">
@@ -3126,7 +3151,7 @@
       <c r="B7" t="s">
         <v>96</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="54">
         <v>45034</v>
       </c>
       <c r="E7" t="s">
@@ -3134,19 +3159,19 @@
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="D8" s="56"/>
+      <c r="D8" s="54"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="56"/>
+      <c r="D9" s="54"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="56">
+      <c r="C11" s="54">
         <v>45056</v>
       </c>
       <c r="E11" t="s">
@@ -3157,7 +3182,7 @@
       <c r="B12" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="54" t="s">
         <v>104</v>
       </c>
       <c r="E12" t="s">
@@ -3168,7 +3193,7 @@
       <c r="B13" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="56">
+      <c r="C13" s="54">
         <v>45056</v>
       </c>
       <c r="E13" t="s">
@@ -3179,7 +3204,7 @@
       <c r="B14" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="56">
+      <c r="C14" s="54">
         <v>45063</v>
       </c>
       <c r="E14" t="s">
@@ -3190,7 +3215,7 @@
       <c r="B15" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="56">
+      <c r="C15" s="54">
         <v>45070</v>
       </c>
       <c r="E15" t="s">
@@ -3201,7 +3226,7 @@
       <c r="B16" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="56">
+      <c r="C16" s="54">
         <v>45040</v>
       </c>
       <c r="E16" t="s">
@@ -3217,7 +3242,7 @@
       <c r="B20" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="56">
+      <c r="C20" s="54">
         <v>45075</v>
       </c>
       <c r="E20" t="s">
@@ -3228,7 +3253,7 @@
       <c r="B21" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="56">
+      <c r="C21" s="54">
         <v>45075</v>
       </c>
       <c r="E21" t="s">
@@ -3236,10 +3261,10 @@
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="C22" s="56"/>
+      <c r="C22" s="54"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="C23" s="56"/>
+      <c r="C23" s="54"/>
     </row>
     <row r="24" spans="2:5">
       <c r="C24" t="s">
@@ -3250,7 +3275,7 @@
       <c r="B25" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="56">
+      <c r="C25" s="54">
         <v>45090</v>
       </c>
       <c r="D25" t="s">
@@ -3261,7 +3286,7 @@
       <c r="B26" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="56">
+      <c r="C26" s="54">
         <v>45090</v>
       </c>
     </row>
@@ -3269,7 +3294,7 @@
       <c r="B27" t="s">
         <v>117</v>
       </c>
-      <c r="C27" s="56">
+      <c r="C27" s="54">
         <v>45090</v>
       </c>
     </row>
@@ -3277,7 +3302,7 @@
       <c r="B28" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="56">
+      <c r="C28" s="54">
         <v>45090</v>
       </c>
     </row>
@@ -3285,12 +3310,12 @@
       <c r="B29" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="56">
+      <c r="C29" s="54">
         <v>45090</v>
       </c>
     </row>
     <row r="30" spans="2:5">
-      <c r="C30" s="56"/>
+      <c r="C30" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
